--- a/Doc/DataKeywords.xlsx
+++ b/Doc/DataKeywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-3885" yWindow="-345" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="-3885" yWindow="-345" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="AbstractKeywords" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>Name</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -464,6 +464,22 @@
   </si>
   <si>
     <t>Owner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业从业人数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业公司数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上电子支付额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动上网网民</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1404,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2060,6 +2076,26 @@
         <v>105</v>
       </c>
     </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
